--- a/npm_modules/pujaMandirImages-129.xlsx
+++ b/npm_modules/pujaMandirImages-129.xlsx
@@ -936,8 +936,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:C130"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A104" workbookViewId="0">
-      <selection activeCell="E112" sqref="E112"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1"/>
